--- a/data_process/xlsx/jongno_F2_processed.xlsx
+++ b/data_process/xlsx/jongno_F2_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,16 @@
           <t>create_time</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>lng</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -551,8 +561,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>126.9761683</v>
+      </c>
+      <c r="N2" t="n">
+        <v>37.5718479</v>
       </c>
     </row>
     <row r="3">
@@ -611,8 +627,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>127.0033302</v>
+      </c>
+      <c r="N3" t="n">
+        <v>37.5832813</v>
       </c>
     </row>
     <row r="4">
@@ -671,8 +693,14 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>127.0148052</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37.5659304</v>
       </c>
     </row>
     <row r="5">
@@ -731,8 +759,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>126.972913</v>
+      </c>
+      <c r="N5" t="n">
+        <v>37.5660056</v>
       </c>
     </row>
     <row r="6">
@@ -791,8 +825,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>126.9761683</v>
+      </c>
+      <c r="N6" t="n">
+        <v>37.5718479</v>
       </c>
     </row>
     <row r="7">
@@ -851,8 +891,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>127.0039443</v>
+      </c>
+      <c r="N7" t="n">
+        <v>37.5766721</v>
       </c>
     </row>
     <row r="8">
@@ -911,8 +957,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>127.0031717</v>
+      </c>
+      <c r="N8" t="n">
+        <v>37.5827315</v>
       </c>
     </row>
     <row r="9">
@@ -971,8 +1023,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>127.0013729</v>
+      </c>
+      <c r="N9" t="n">
+        <v>37.5764627</v>
       </c>
     </row>
     <row r="10">
@@ -1031,8 +1089,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>127.0027126</v>
+      </c>
+      <c r="N10" t="n">
+        <v>37.5839925</v>
       </c>
     </row>
     <row r="11">
@@ -1091,8 +1155,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>126.9761683</v>
+      </c>
+      <c r="N11" t="n">
+        <v>37.5718479</v>
       </c>
     </row>
     <row r="12">
@@ -1151,8 +1221,14 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>127.0013729</v>
+      </c>
+      <c r="N12" t="n">
+        <v>37.5764627</v>
       </c>
     </row>
     <row r="13">
@@ -1211,8 +1287,14 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>127.0036635</v>
+      </c>
+      <c r="N13" t="n">
+        <v>37.5822771</v>
       </c>
     </row>
     <row r="14">
@@ -1271,8 +1353,14 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>126.9765331</v>
+      </c>
+      <c r="N14" t="n">
+        <v>37.5667226</v>
       </c>
     </row>
     <row r="15">
@@ -1331,8 +1419,14 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>126.9761683</v>
+      </c>
+      <c r="N15" t="n">
+        <v>37.5718479</v>
       </c>
     </row>
     <row r="16">
@@ -1391,8 +1485,14 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>127.0010162</v>
+      </c>
+      <c r="N16" t="n">
+        <v>37.5718135</v>
       </c>
     </row>
     <row r="17">
@@ -1451,8 +1551,14 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>127.0023239</v>
+      </c>
+      <c r="N17" t="n">
+        <v>37.5846243</v>
       </c>
     </row>
     <row r="18">
@@ -1511,8 +1617,14 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>127.0036131</v>
+      </c>
+      <c r="N18" t="n">
+        <v>37.5811984</v>
       </c>
     </row>
     <row r="19">
@@ -1571,8 +1683,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>127.0025824</v>
+      </c>
+      <c r="N19" t="n">
+        <v>37.5836714</v>
       </c>
     </row>
     <row r="20">
@@ -1631,8 +1749,14 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>126.9816445</v>
+      </c>
+      <c r="N20" t="n">
+        <v>37.5685313</v>
       </c>
     </row>
     <row r="21">
@@ -1691,8 +1815,14 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>127.0024406</v>
+      </c>
+      <c r="N21" t="n">
+        <v>37.5829368</v>
       </c>
     </row>
     <row r="22">
@@ -1751,8 +1881,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>127.0005846</v>
+      </c>
+      <c r="N22" t="n">
+        <v>37.5839287</v>
       </c>
     </row>
     <row r="23">
@@ -1811,8 +1947,14 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>126.9867305</v>
+      </c>
+      <c r="N23" t="n">
+        <v>37.5698289</v>
       </c>
     </row>
     <row r="24">
@@ -1871,8 +2013,14 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>127.0026677</v>
+      </c>
+      <c r="N24" t="n">
+        <v>37.5829838</v>
       </c>
     </row>
     <row r="25">
@@ -1931,8 +2079,14 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>127.0028236</v>
+      </c>
+      <c r="N25" t="n">
+        <v>37.5818542</v>
       </c>
     </row>
     <row r="26">
@@ -1991,8 +2145,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>127.0021755</v>
+      </c>
+      <c r="N26" t="n">
+        <v>37.5827062</v>
       </c>
     </row>
     <row r="27">
@@ -2051,8 +2211,14 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>127.0021502</v>
+      </c>
+      <c r="N27" t="n">
+        <v>37.5835251</v>
       </c>
     </row>
     <row r="28">
@@ -2111,8 +2277,14 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>127.0030956</v>
+      </c>
+      <c r="N28" t="n">
+        <v>37.5824911</v>
       </c>
     </row>
     <row r="29">
@@ -2171,8 +2343,14 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>127.0148052</v>
+      </c>
+      <c r="N29" t="n">
+        <v>37.5659304</v>
       </c>
     </row>
     <row r="30">
@@ -2231,8 +2409,14 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>127.0035724</v>
+      </c>
+      <c r="N30" t="n">
+        <v>37.5816064</v>
       </c>
     </row>
     <row r="31">
@@ -2291,8 +2475,14 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>127.0039443</v>
+      </c>
+      <c r="N31" t="n">
+        <v>37.5766721</v>
       </c>
     </row>
     <row r="32">
@@ -2351,8 +2541,14 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>127.0004414</v>
+      </c>
+      <c r="N32" t="n">
+        <v>37.5820708</v>
       </c>
     </row>
     <row r="33">
@@ -2411,8 +2607,14 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>127.0030468</v>
+      </c>
+      <c r="N33" t="n">
+        <v>37.5838842</v>
       </c>
     </row>
     <row r="34">
@@ -2471,8 +2673,14 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>127.0039443</v>
+      </c>
+      <c r="N34" t="n">
+        <v>37.5766721</v>
       </c>
     </row>
     <row r="35">
@@ -2531,8 +2739,14 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>127.0025975</v>
+      </c>
+      <c r="N35" t="n">
+        <v>37.581862</v>
       </c>
     </row>
     <row r="36">
@@ -2591,8 +2805,14 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>127.0039781</v>
+      </c>
+      <c r="N36" t="n">
+        <v>37.581013</v>
       </c>
     </row>
     <row r="37">
@@ -2651,8 +2871,14 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>127.0024786</v>
+      </c>
+      <c r="N37" t="n">
+        <v>37.5824917</v>
       </c>
     </row>
     <row r="38">
@@ -2711,8 +2937,14 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>127.0039443</v>
+      </c>
+      <c r="N38" t="n">
+        <v>37.5766721</v>
       </c>
     </row>
     <row r="39">
@@ -2771,8 +3003,14 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>127.0039908</v>
+      </c>
+      <c r="N39" t="n">
+        <v>37.5808259</v>
       </c>
     </row>
     <row r="40">
@@ -2831,8 +3069,14 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>127.0025975</v>
+      </c>
+      <c r="N40" t="n">
+        <v>37.581862</v>
       </c>
     </row>
     <row r="41">
@@ -2891,8 +3135,14 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>127.0032821</v>
+      </c>
+      <c r="N41" t="n">
+        <v>37.5824727</v>
       </c>
     </row>
     <row r="42">
@@ -2951,8 +3201,14 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>127.0036299</v>
+      </c>
+      <c r="N42" t="n">
+        <v>37.5827499</v>
       </c>
     </row>
     <row r="43">
@@ -3011,8 +3267,14 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>127.0021216</v>
+      </c>
+      <c r="N43" t="n">
+        <v>37.5830938</v>
       </c>
     </row>
     <row r="44">
@@ -3071,8 +3333,14 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>126.9842201</v>
+      </c>
+      <c r="N44" t="n">
+        <v>37.5640461</v>
       </c>
     </row>
     <row r="45">
@@ -3131,8 +3399,14 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>127.0039937</v>
+      </c>
+      <c r="N45" t="n">
+        <v>37.5819391</v>
       </c>
     </row>
     <row r="46">
@@ -3191,8 +3465,14 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>127.0033582</v>
+      </c>
+      <c r="N46" t="n">
+        <v>37.583733</v>
       </c>
     </row>
     <row r="47">
@@ -3251,8 +3531,14 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>126.9999822</v>
+      </c>
+      <c r="N47" t="n">
+        <v>37.5837443</v>
       </c>
     </row>
     <row r="48">
@@ -3311,8 +3597,14 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>127.0032821</v>
+      </c>
+      <c r="N48" t="n">
+        <v>37.5824727</v>
       </c>
     </row>
     <row r="49">
@@ -3371,8 +3663,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>127.0027883</v>
+      </c>
+      <c r="N49" t="n">
+        <v>37.5822652</v>
       </c>
     </row>
     <row r="50">
@@ -3431,8 +3729,14 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>126.9867305</v>
+      </c>
+      <c r="N50" t="n">
+        <v>37.5698289</v>
       </c>
     </row>
     <row r="51">
@@ -3491,8 +3795,14 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:40:48</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>127.0028255</v>
+      </c>
+      <c r="N51" t="n">
+        <v>37.5816161</v>
       </c>
     </row>
   </sheetData>

--- a/data_process/xlsx/jongno_F2_processed.xlsx
+++ b/data_process/xlsx/jongno_F2_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,17 +491,27 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>create_time</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>lng</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>naver_place_id</t>
         </is>
       </c>
     </row>
@@ -561,14 +571,22 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
+          <t>https://pcmap.place.naver.com/place/11576170/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143668152</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
         <v>126.9761683</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>37.5718479</v>
+      </c>
+      <c r="P2" t="n">
+        <v>11576170</v>
       </c>
     </row>
     <row r="3">
@@ -627,20 +645,28 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
+          <t>https://pcmap.place.naver.com/place/38576076/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143674262</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>127.0033302</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>37.5832813</v>
+      </c>
+      <c r="P3" t="n">
+        <v>38576076</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>충무아트센터</t>
+          <t>세종문화회관 대극장</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -668,17 +694,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>퇴계로</t>
+          <t>세종대로</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>175 세종이야기</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -688,25 +714,33 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>02-2230-6600</t>
+          <t>02-399-1111</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>127.0148052</v>
+          <t>https://pcmap.place.naver.com/place/13412847/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143679332</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N4" t="n">
-        <v>37.5659304</v>
+        <v>126.9761683</v>
+      </c>
+      <c r="O4" t="n">
+        <v>37.5718479</v>
+      </c>
+      <c r="P4" t="n">
+        <v>13412847</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>국립정동극장</t>
+          <t>충무아트센터</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -721,7 +755,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -739,12 +773,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>정동길</t>
+          <t>퇴계로</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>387</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -754,25 +788,33 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>02-751-1500</t>
+          <t>02-2230-6600</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>126.972913</v>
+          <t>https://pcmap.place.naver.com/place/11663705/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143684339</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N5" t="n">
-        <v>37.5660056</v>
+        <v>127.0148052</v>
+      </c>
+      <c r="O5" t="n">
+        <v>37.5659304</v>
+      </c>
+      <c r="P5" t="n">
+        <v>11663705</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>세종문화회관 대극장</t>
+          <t>국립정동극장</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -787,7 +829,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -800,17 +842,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>세종대로</t>
+          <t>정동길</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>175 세종이야기</t>
+          <t>43</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -820,19 +862,27 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>02-399-1111</t>
+          <t>02-751-1500</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>126.9761683</v>
+          <t>https://pcmap.place.naver.com/place/11620908/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143689742</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N6" t="n">
-        <v>37.5718479</v>
+        <v>126.972913</v>
+      </c>
+      <c r="O6" t="n">
+        <v>37.5660056</v>
+      </c>
+      <c r="P6" t="n">
+        <v>11620908</v>
       </c>
     </row>
     <row r="7">
@@ -853,7 +903,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -891,14 +941,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+          <t>https://pcmap.place.naver.com/place/20978368/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143694988</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>127.0039443</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>37.5766721</v>
+      </c>
+      <c r="P7" t="n">
+        <v>20978368</v>
       </c>
     </row>
     <row r="8">
@@ -957,20 +1015,28 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+          <t>https://pcmap.place.naver.com/place/1524725593/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143699991</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>127.0031717</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>37.5827315</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1524725593</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>홍익대학교 대학로 아트센터</t>
+          <t>달밤엔씨어터</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -980,7 +1046,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1003,12 +1069,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>대학로</t>
+          <t>대학로14길</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>18-2 지하1층</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1018,25 +1084,33 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>02-742-0300</t>
+          <t>02-985-5654</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>127.0013729</v>
+          <t>https://pcmap.place.naver.com/place/1546280678/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143705623</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N9" t="n">
-        <v>37.5764627</v>
+        <v>127.0027126</v>
+      </c>
+      <c r="O9" t="n">
+        <v>37.5839925</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1546280678</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>달밤엔씨어터</t>
+          <t>세종문화회관 M씨어터</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1046,12 +1120,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1069,12 +1143,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>대학로14길</t>
+          <t>세종대로</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>18-2 지하1층</t>
+          <t>175 세종이야기</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1084,25 +1158,33 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>02-985-5654</t>
+          <t>02-399-1111</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>127.0027126</v>
+          <t>https://pcmap.place.naver.com/place/13412846/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143710557</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N10" t="n">
-        <v>37.5839925</v>
+        <v>126.9761683</v>
+      </c>
+      <c r="O10" t="n">
+        <v>37.5718479</v>
+      </c>
+      <c r="P10" t="n">
+        <v>13412846</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>세종문화회관 M씨어터</t>
+          <t>홍익대학교 대학로 아트센터</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1117,7 +1199,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1135,12 +1217,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>세종대로</t>
+          <t>대학로</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>175 세종이야기</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1150,25 +1232,33 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>02-399-1111</t>
+          <t>02-742-0300</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>126.9761683</v>
+          <t>https://pcmap.place.naver.com/place/31222671/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143717374</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N11" t="n">
-        <v>37.5718479</v>
+        <v>127.0013729</v>
+      </c>
+      <c r="O11" t="n">
+        <v>37.5764627</v>
+      </c>
+      <c r="P11" t="n">
+        <v>31222671</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>홍익대학교대학로아트센터 대극장</t>
+          <t>대학로티오엠</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1183,7 +1273,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1201,12 +1291,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>대학로</t>
+          <t>대학로8가길</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>85</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1216,25 +1306,33 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>02-742-0300</t>
+          <t>1544-8303</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>127.0013729</v>
+          <t>https://pcmap.place.naver.com/place/35445215/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143722960</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N12" t="n">
-        <v>37.5764627</v>
+        <v>127.0036635</v>
+      </c>
+      <c r="O12" t="n">
+        <v>37.5822771</v>
+      </c>
+      <c r="P12" t="n">
+        <v>35445215</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>대학로티오엠</t>
+          <t>JTN 아트홀 1관</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1249,11 +1347,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1267,12 +1365,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>대학로8가길</t>
+          <t>이화장길</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>26</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1282,19 +1380,27 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1544-8303</t>
+          <t>02-779-1595</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>127.0036635</v>
+          <t>https://pcmap.place.naver.com/place/13413042/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143727991</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N13" t="n">
-        <v>37.5822771</v>
+        <v>127.0039443</v>
+      </c>
+      <c r="O13" t="n">
+        <v>37.5766721</v>
+      </c>
+      <c r="P13" t="n">
+        <v>13413042</v>
       </c>
     </row>
     <row r="14">
@@ -1315,11 +1421,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>958</v>
+        <v>712</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1353,20 +1459,28 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+          <t>https://pcmap.place.naver.com/place/11639908/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143733674</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>126.9765331</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>37.5667226</v>
+      </c>
+      <c r="P14" t="n">
+        <v>11639908</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>세종문화회관 S씨어터</t>
+          <t>홍익대학교대학로아트센터 대극장</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1376,7 +1490,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1385,7 +1499,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1399,12 +1513,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>세종대로</t>
+          <t>대학로</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1414,25 +1528,33 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-742-0300</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>126.9761683</v>
+          <t>https://pcmap.place.naver.com/place/37609050/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143738706</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N15" t="n">
-        <v>37.5718479</v>
+        <v>127.0013729</v>
+      </c>
+      <c r="O15" t="n">
+        <v>37.5764627</v>
+      </c>
+      <c r="P15" t="n">
+        <v>37609050</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>두산아트센터</t>
+          <t>링크아트센터</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1442,7 +1564,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1451,7 +1573,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1465,12 +1587,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>종로33길</t>
+          <t>대학로14길</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>29 링크아트센터</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1480,25 +1602,33 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>02-708-5001</t>
+          <t>02-3674-7897</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>127.0010162</v>
+          <t>https://pcmap.place.naver.com/place/1142511774/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143743701</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N16" t="n">
-        <v>37.5718135</v>
+        <v>127.0023239</v>
+      </c>
+      <c r="O16" t="n">
+        <v>37.5846243</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1142511774</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>링크아트센터</t>
+          <t>두산아트센터</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1508,7 +1638,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1517,7 +1647,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1531,12 +1661,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>대학로14길</t>
+          <t>종로33길</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>29 링크아트센터</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1546,19 +1676,27 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>02-3674-7897</t>
+          <t>02-708-5001</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>127.0023239</v>
+          <t>https://pcmap.place.naver.com/place/11639707/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143748734</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N17" t="n">
-        <v>37.5846243</v>
+        <v>127.0010162</v>
+      </c>
+      <c r="O17" t="n">
+        <v>37.5718135</v>
+      </c>
+      <c r="P17" t="n">
+        <v>11639707</v>
       </c>
     </row>
     <row r="18">
@@ -1579,11 +1717,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1617,20 +1755,28 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+          <t>https://pcmap.place.naver.com/place/33211250/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143754139</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>127.0036131</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>37.5811984</v>
+      </c>
+      <c r="P18" t="n">
+        <v>33211250</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>아스가르드 씨어터</t>
+          <t>세종문화회관 S씨어터</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1640,7 +1786,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1663,12 +1809,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>동숭길</t>
+          <t>세종대로</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>140 지하 1층</t>
+          <t>175</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1678,25 +1824,33 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0507-1318-6014</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>127.0025824</v>
+          <t>https://pcmap.place.naver.com/place/1874562298/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143759387</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N19" t="n">
-        <v>37.5836714</v>
+        <v>126.9761683</v>
+      </c>
+      <c r="O19" t="n">
+        <v>37.5718479</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1874562298</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CKL스테이지</t>
+          <t>아스가르드 씨어터</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1711,11 +1865,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>285</v>
+        <v>1029</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1724,17 +1878,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>청계천로</t>
+          <t>동숭길</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>40 지하 1층 CKL스테이지</t>
+          <t>140 지하 1층</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1744,25 +1898,33 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>02-6441-3951</t>
+          <t>0507-1318-6014</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>126.9816445</v>
+          <t>https://pcmap.place.naver.com/place/1470639686/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143766260</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N20" t="n">
-        <v>37.5685313</v>
+        <v>127.0025824</v>
+      </c>
+      <c r="O20" t="n">
+        <v>37.5836714</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1470639686</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>아루또 소극장</t>
+          <t>아트포레스트</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1777,11 +1939,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1795,12 +1957,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>대학로8가길</t>
+          <t>대학로12길</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>48 연경빌딩 4층</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1810,25 +1972,33 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>02-6012-2511</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>127.0024406</v>
+          <t>https://pcmap.place.naver.com/place/51429752/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143771210</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N21" t="n">
-        <v>37.5829368</v>
+        <v>127.0030956</v>
+      </c>
+      <c r="O21" t="n">
+        <v>37.5824911</v>
+      </c>
+      <c r="P21" t="n">
+        <v>51429752</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>서연아트홀</t>
+          <t>서경대학교 공연예술센터</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1843,11 +2013,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1861,12 +2031,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>창경궁로</t>
+          <t>동숭길</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>258-9</t>
+          <t>148</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1876,25 +2046,33 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>070-5180-5956</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>127.0005846</v>
+          <t>https://pcmap.place.naver.com/place/1249778156/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143778737</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N22" t="n">
-        <v>37.5839287</v>
+        <v>127.0021502</v>
+      </c>
+      <c r="O22" t="n">
+        <v>37.5835251</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1249778156</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>서울코미디클럽</t>
+          <t>서연아트홀</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1909,7 +2087,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1927,12 +2105,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>종로14길</t>
+          <t>창경궁로</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4 2층</t>
+          <t>258-9</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1942,25 +2120,33 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>070-4633-6407</t>
+          <t>070-5180-5956</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>126.9867305</v>
+          <t>https://pcmap.place.naver.com/place/11639701/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143785819</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N23" t="n">
-        <v>37.5698289</v>
+        <v>127.0005846</v>
+      </c>
+      <c r="O23" t="n">
+        <v>37.5839287</v>
+      </c>
+      <c r="P23" t="n">
+        <v>11639701</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>시온아트홀</t>
+          <t>라온아트홀 / 연극 한뼘사이</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1975,11 +2161,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1993,12 +2179,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>대학로8가길</t>
+          <t>대학로10길</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>52 3층</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2008,25 +2194,33 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>070-8719-9106</t>
+          <t>070-8952-2151</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>127.0026677</v>
+          <t>https://pcmap.place.naver.com/place/1464592641/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143790821</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N24" t="n">
-        <v>37.5829838</v>
+        <v>127.0028236</v>
+      </c>
+      <c r="O24" t="n">
+        <v>37.5818542</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1464592641</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>라온아트홀 / 연극 한뼘사이</t>
+          <t>바탕골소극장</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2036,16 +2230,16 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>936</v>
+        <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2064,7 +2258,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5 5층</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2074,25 +2268,33 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>070-8952-2151</t>
+          <t>02-764-8760</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>127.0028236</v>
+          <t>https://pcmap.place.naver.com/place/38009123/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143796033</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N25" t="n">
-        <v>37.5818542</v>
+        <v>127.0025975</v>
+      </c>
+      <c r="O25" t="n">
+        <v>37.581862</v>
+      </c>
+      <c r="P25" t="n">
+        <v>38009123</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>초록씨어터</t>
+          <t>대학로자유극장</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2107,11 +2309,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>743</v>
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2125,12 +2327,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>대학로</t>
+          <t>대학로12길</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>128 21세기빌딩 5층</t>
+          <t>31</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2140,25 +2342,33 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0507-1356-1932</t>
+          <t>0507-1370-0661</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>127.0021755</v>
+          <t>https://pcmap.place.naver.com/place/317404170/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143801706</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N26" t="n">
-        <v>37.5827062</v>
+        <v>127.0036299</v>
+      </c>
+      <c r="O26" t="n">
+        <v>37.5827499</v>
+      </c>
+      <c r="P26" t="n">
+        <v>317404170</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>서경대학교 공연예술센터</t>
+          <t>정극장 행오버</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2168,16 +2378,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>743</v>
+        <v>1522</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2191,12 +2401,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>동숭길</t>
+          <t>대학로12길</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>69 3F</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2206,25 +2416,33 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1352-6485</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>127.0021502</v>
+          <t>https://pcmap.place.naver.com/place/1888937466/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143806958</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N27" t="n">
-        <v>37.5835251</v>
+        <v>127.0039781</v>
+      </c>
+      <c r="O27" t="n">
+        <v>37.581013</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1888937466</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>아트포레스트</t>
+          <t>예그린씨어터</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2239,11 +2457,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1522</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2257,12 +2475,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>대학로12길</t>
+          <t>동숭길</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>130-5</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2272,25 +2490,33 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-6673-0100</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>127.0030956</v>
+          <t>https://pcmap.place.naver.com/place/33949063/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143812549</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N28" t="n">
-        <v>37.5824911</v>
+        <v>127.0030468</v>
+      </c>
+      <c r="O28" t="n">
+        <v>37.5838842</v>
+      </c>
+      <c r="P28" t="n">
+        <v>33949063</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>충무아트센터 대극장</t>
+          <t>시온아트홀</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2305,11 +2531,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2318,17 +2544,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>퇴계로</t>
+          <t>대학로8가길</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>387 충무아트홀</t>
+          <t>52 3층</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2338,25 +2564,33 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>02-2230-6600</t>
+          <t>070-8719-9106</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>127.0148052</v>
+          <t>https://pcmap.place.naver.com/place/1491198750/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143817575</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N29" t="n">
-        <v>37.5659304</v>
+        <v>127.0026677</v>
+      </c>
+      <c r="O29" t="n">
+        <v>37.5829838</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1491198750</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>틴틴홀</t>
+          <t>서울코미디클럽</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2371,11 +2605,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2389,12 +2623,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>대학로10길</t>
+          <t>종로14길</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>24 스타리움빌딩</t>
+          <t>4 2층</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2404,25 +2638,33 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>02-764-8760</t>
+          <t>070-4633-6407</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>127.0035724</v>
+          <t>https://pcmap.place.naver.com/place/1455820061/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143824314</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N30" t="n">
-        <v>37.5816064</v>
+        <v>126.9867305</v>
+      </c>
+      <c r="O30" t="n">
+        <v>37.5698289</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1455820061</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>JTN 아트홀 2관</t>
+          <t>CKL스테이지</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2437,11 +2679,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2450,17 +2692,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>이화장길</t>
+          <t>청계천로</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>40 지하 1층 CKL스테이지</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2470,25 +2712,33 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>02-779-1595</t>
+          <t>02-6441-3951</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>127.0039443</v>
+          <t>https://pcmap.place.naver.com/place/913710464/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143831168</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N31" t="n">
-        <v>37.5766721</v>
+        <v>126.9816445</v>
+      </c>
+      <c r="O31" t="n">
+        <v>37.5685313</v>
+      </c>
+      <c r="P31" t="n">
+        <v>913710464</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>후암씨어터</t>
+          <t>아티스탄홀</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2507,7 +2757,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>144</v>
+        <v>685</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2521,12 +2771,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>대학로11길</t>
+          <t>대학로</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>23 7층</t>
+          <t>132 형원빌딩</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2536,25 +2786,33 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-1661-6981</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>127.0004414</v>
+          <t>https://pcmap.place.naver.com/place/13284573/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143837979</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N32" t="n">
-        <v>37.5820708</v>
+        <v>127.0021216</v>
+      </c>
+      <c r="O32" t="n">
+        <v>37.5830938</v>
+      </c>
+      <c r="P32" t="n">
+        <v>13284573</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>예그린씨어터</t>
+          <t>동덕여자대학교 공연예술센터</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2573,7 +2831,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2592,7 +2850,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>130-5</t>
+          <t>126 동덕여대 공연예술 연구소</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2602,25 +2860,33 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>02-6673-0100</t>
+          <t>02-940-4578</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>127.0030468</v>
+          <t>https://pcmap.place.naver.com/place/11611690/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143844840</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N33" t="n">
-        <v>37.5838842</v>
+        <v>127.0033582</v>
+      </c>
+      <c r="O33" t="n">
+        <v>37.583733</v>
+      </c>
+      <c r="P33" t="n">
+        <v>11611690</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>JTN 아트홀 4관</t>
+          <t>틴틴홀</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2635,11 +2901,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>638</v>
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2653,12 +2919,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>이화장길</t>
+          <t>대학로10길</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24 스타리움빌딩</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2668,25 +2934,33 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>02-779-1595</t>
+          <t>02-764-8760</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>127.0039443</v>
+          <t>https://pcmap.place.naver.com/place/13280778/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143852404</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N34" t="n">
-        <v>37.5766721</v>
+        <v>127.0035724</v>
+      </c>
+      <c r="O34" t="n">
+        <v>37.5816064</v>
+      </c>
+      <c r="P34" t="n">
+        <v>13280778</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>바탕골소극장</t>
+          <t>충무아트센터 대극장</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2696,12 +2970,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -2714,17 +2988,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>대학로10길</t>
+          <t>퇴계로</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>5 5층</t>
+          <t>387 충무아트홀</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2734,25 +3008,33 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>02-764-8760</t>
+          <t>02-2230-6600</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>127.0025975</v>
+          <t>https://pcmap.place.naver.com/place/13413087/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143857975</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N35" t="n">
-        <v>37.581862</v>
+        <v>127.0148052</v>
+      </c>
+      <c r="O35" t="n">
+        <v>37.5659304</v>
+      </c>
+      <c r="P35" t="n">
+        <v>13413087</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>정극장 행오버</t>
+          <t>JTN 아트홀 2관</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2762,12 +3044,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -2785,12 +3067,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>대학로12길</t>
+          <t>이화장길</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>69 3F</t>
+          <t>26</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2800,25 +3082,33 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0507-1352-6485</t>
+          <t>02-779-1595</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>127.0039781</v>
+          <t>https://pcmap.place.naver.com/place/13413043/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143863150</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N36" t="n">
-        <v>37.581013</v>
+        <v>127.0039443</v>
+      </c>
+      <c r="O36" t="n">
+        <v>37.5766721</v>
+      </c>
+      <c r="P36" t="n">
+        <v>13413043</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>파랑씨어터</t>
+          <t>컬쳐씨어터</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2833,11 +3123,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1479</v>
+        <v>1485</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2856,7 +3146,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>80 매표소 1층, 공연장 5층</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2866,25 +3156,33 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>070-4870-1931</t>
+          <t>0507-1486-0213</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>127.0024786</v>
+          <t>https://pcmap.place.naver.com/place/1910206912/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143868394</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N37" t="n">
-        <v>37.5824917</v>
+        <v>127.0032821</v>
+      </c>
+      <c r="O37" t="n">
+        <v>37.5824727</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1910206912</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>JTN 아트홀 1관</t>
+          <t>플러스씨어터</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2899,11 +3197,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>567</v>
+        <v>1485</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2917,12 +3215,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>이화장길</t>
+          <t>대학로12길</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2932,25 +3230,33 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>02-779-1595</t>
+          <t>02-556-4303</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>127.0039443</v>
+          <t>https://pcmap.place.naver.com/place/1138854501/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143874290</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N38" t="n">
-        <v>37.5766721</v>
+        <v>127.0039908</v>
+      </c>
+      <c r="O38" t="n">
+        <v>37.5808259</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1138854501</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>플러스씨어터</t>
+          <t>해피시어터/연극라면</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2965,11 +3271,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>693</v>
+        <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2983,12 +3289,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>대학로12길</t>
+          <t>대학로10길</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>5 지하1층</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2998,25 +3304,33 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>02-556-4303</t>
+          <t>0507-1329-7611</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>127.0039908</v>
+          <t>https://pcmap.place.naver.com/place/1352781000/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143879380</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N39" t="n">
-        <v>37.5808259</v>
+        <v>127.0025975</v>
+      </c>
+      <c r="O39" t="n">
+        <v>37.581862</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1352781000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>해피시어터/연극라면</t>
+          <t>초록씨어터</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3026,12 +3340,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -3049,12 +3363,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>대학로10길</t>
+          <t>대학로</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>5 지하1층</t>
+          <t>128 21세기빌딩 5층</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3064,25 +3378,33 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0507-1329-7611</t>
+          <t>0507-1356-1932</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>127.0025975</v>
+          <t>https://pcmap.place.naver.com/place/1219330836/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143885158</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N40" t="n">
-        <v>37.581862</v>
+        <v>127.0021755</v>
+      </c>
+      <c r="O40" t="n">
+        <v>37.5827062</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1219330836</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>컬쳐씨어터</t>
+          <t>JTN 아트홀 4관</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3092,16 +3414,16 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -3115,12 +3437,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>대학로8가길</t>
+          <t>이화장길</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>80 매표소 1층, 공연장 5층</t>
+          <t>26</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3130,25 +3452,33 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0507-1486-0213</t>
+          <t>02-779-1595</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>127.0032821</v>
+          <t>https://pcmap.place.naver.com/place/13413045/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143890442</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N41" t="n">
-        <v>37.5824727</v>
+        <v>127.0039443</v>
+      </c>
+      <c r="O41" t="n">
+        <v>37.5766721</v>
+      </c>
+      <c r="P41" t="n">
+        <v>13413045</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>대학로자유극장</t>
+          <t>국립극단 명동예술극장</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3158,16 +3488,16 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>공연,연극시설</t>
+          <t>공연장</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1468</v>
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -3176,17 +3506,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>대학로12길</t>
+          <t>명동길</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3196,25 +3526,33 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0507-1370-0661</t>
+          <t>1644-2003</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>127.0036299</v>
+          <t>https://pcmap.place.naver.com/place/13097297/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143895595</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N42" t="n">
-        <v>37.5827499</v>
+        <v>126.9842201</v>
+      </c>
+      <c r="O42" t="n">
+        <v>37.5640461</v>
+      </c>
+      <c r="P42" t="n">
+        <v>13097297</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>아티스탄홀</t>
+          <t>파랑씨어터</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3224,16 +3562,16 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>공연장</t>
+          <t>공연,연극시설</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -3247,12 +3585,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>대학로</t>
+          <t>대학로8가길</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>132 형원빌딩</t>
+          <t>36</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3262,25 +3600,33 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>02-1661-6981</t>
+          <t>070-4870-1931</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>127.0021216</v>
+          <t>https://pcmap.place.naver.com/place/35913944/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143901179</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N43" t="n">
-        <v>37.5830938</v>
+        <v>127.0024786</v>
+      </c>
+      <c r="O43" t="n">
+        <v>37.5824917</v>
+      </c>
+      <c r="P43" t="n">
+        <v>35913944</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>국립극단 명동예술극장</t>
+          <t>후암씨어터</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3295,11 +3641,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3308,17 +3654,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>명동길</t>
+          <t>대학로11길</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>23 7층</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3328,19 +3674,27 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1644-2003</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>126.9842201</v>
+          <t>https://pcmap.place.naver.com/place/1741020830/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143906345</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N44" t="n">
-        <v>37.5640461</v>
+        <v>127.0004414</v>
+      </c>
+      <c r="O44" t="n">
+        <v>37.5820708</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1741020830</v>
       </c>
     </row>
     <row r="45">
@@ -3361,7 +3715,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -3399,20 +3753,28 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+          <t>https://pcmap.place.naver.com/place/11663698/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143913321</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>127.0039937</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>37.5819391</v>
+      </c>
+      <c r="P45" t="n">
+        <v>11663698</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>동덕여자대학교 공연예술센터</t>
+          <t>하마씨어터</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3427,11 +3789,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>442</v>
+        <v>669</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3445,12 +3807,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>동숭길</t>
+          <t>대학로10길</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>126 동덕여대 공연예술 연구소</t>
+          <t>15-11 4층</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3460,25 +3822,33 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>02-940-4578</t>
+          <t>02-766-0830</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>127.0033582</v>
+          <t>https://pcmap.place.naver.com/place/1450717347/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143920172</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N46" t="n">
-        <v>37.583733</v>
+        <v>127.0027883</v>
+      </c>
+      <c r="O46" t="n">
+        <v>37.5822652</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1450717347</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>한성아트홀 제2관</t>
+          <t>콘텐츠박스</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3493,11 +3863,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>498</v>
+        <v>669</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3511,12 +3881,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>창경궁로</t>
+          <t>동숭길</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>254 동원빌딩 지하1층</t>
+          <t>55 대학빌딩 B1</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3526,25 +3896,33 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>02-741-0251</t>
+          <t>02-747-2232</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>126.9999822</v>
+          <t>https://pcmap.place.naver.com/place/12059901/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143925852</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N47" t="n">
-        <v>37.5837443</v>
+        <v>127.0041704</v>
+      </c>
+      <c r="O47" t="n">
+        <v>37.580792</v>
+      </c>
+      <c r="P47" t="n">
+        <v>12059901</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>스튜디오블루</t>
+          <t>스타스테이지</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3559,11 +3937,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3577,12 +3955,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>대학로8가길</t>
+          <t>대학로12길</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>80 리트모빌딩 지하</t>
+          <t>15 . 지하2층(동숭동)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3592,25 +3970,33 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0507-1328-9207</t>
+          <t>0507-1440-5356</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>127.0032821</v>
+          <t>https://pcmap.place.naver.com/place/1169564316/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143930957</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N48" t="n">
-        <v>37.5824727</v>
+        <v>127.0028633</v>
+      </c>
+      <c r="O48" t="n">
+        <v>37.5827358</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1169564316</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>하마씨어터</t>
+          <t>JTN 아트홀 3관</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3625,11 +4011,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>662</v>
+        <v>445</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3643,12 +4029,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>대학로10길</t>
+          <t>이화장길</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>15-11 4층</t>
+          <t>26 JTN 아트홀</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3658,19 +4044,27 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>02-766-0830</t>
+          <t>0507-1302-1596</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>127.0027883</v>
+          <t>https://pcmap.place.naver.com/place/13413044/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143935915</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N49" t="n">
-        <v>37.5822652</v>
+        <v>127.0039443</v>
+      </c>
+      <c r="O49" t="n">
+        <v>37.5766721</v>
+      </c>
+      <c r="P49" t="n">
+        <v>13413044</v>
       </c>
     </row>
     <row r="50">
@@ -3691,11 +4085,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>662</v>
+        <v>65</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3729,20 +4123,28 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+          <t>https://pcmap.place.naver.com/place/1784191440/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143942659</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>126.9867305</v>
       </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
         <v>37.5698289</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1784191440</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>룸씨어터</t>
+          <t>스카이씨어터</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3761,7 +4163,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>156</v>
+        <v>528</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3775,12 +4177,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>대학로10길</t>
+          <t>대학로8가길</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>12 지하1층</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3790,19 +4192,27 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0507-1377-2335</t>
+          <t>070-4106-8889</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2023-08-20 16:40:48</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>127.0028255</v>
+          <t>https://pcmap.place.naver.com/place/21004693/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143951586</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:45:54</t>
+        </is>
       </c>
       <c r="N51" t="n">
-        <v>37.5816161</v>
+        <v>127.0026677</v>
+      </c>
+      <c r="O51" t="n">
+        <v>37.5829838</v>
+      </c>
+      <c r="P51" t="n">
+        <v>21004693</v>
       </c>
     </row>
   </sheetData>

--- a/data_process/xlsx/jongno_F2_processed.xlsx
+++ b/data_process/xlsx/jongno_F2_processed.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -650,7 +650,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -798,7 +798,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -872,7 +872,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -946,7 +946,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N42" t="n">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -3980,7 +3980,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N49" t="n">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023-08-27 22:45:54</t>
+          <t>2023-09-05 15:38:05</t>
         </is>
       </c>
       <c r="N51" t="n">
